--- a/Codon optimization/organisms.xlsx
+++ b/Codon optimization/organisms.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Documents/MATLAB/iGEM/Sci-Phi-Software-Tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Documents/MATLAB/iGEM/Sci-Phi-Software-Tool/Codon optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CBA6B6-DB75-B346-B9AA-935E19362177}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F2AE3-AC96-D54E-AFFC-5FE3D2E1DD33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="5700" windowWidth="28040" windowHeight="17440" xr2:uid="{A30671E3-F5FE-C54F-B941-D2030D68005D}"/>
+    <workbookView xWindow="5560" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{A30671E3-F5FE-C54F-B941-D2030D68005D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238B5E4E-CA71-474D-AD8B-AD6643C83460}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -394,18 +396,13 @@
         <v>469008</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>303</v>
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1219067</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1219067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
         <v>224308</v>
       </c>
     </row>

--- a/Codon optimization/organisms.xlsx
+++ b/Codon optimization/organisms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennis/Documents/MATLAB/iGEM/Sci-Phi-Software-Tool/Codon optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F2AE3-AC96-D54E-AFFC-5FE3D2E1DD33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E098E3E-3A0C-5E43-8CF3-89A1EB44DF78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="3560" windowWidth="28040" windowHeight="17440" xr2:uid="{A30671E3-F5FE-C54F-B941-D2030D68005D}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
